--- a/v0.0.1/projeto/recurso/componentes.xlsx
+++ b/v0.0.1/projeto/recurso/componentes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiqu\Documents\ETEC\SE\v0.0.1\projeto\recurso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiqu\Downloads\etec199-2023-se-projeto-automobilistico-master\v0.0.1\projeto\recurso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{139E093D-C745-4AEF-B230-4AA1ED4BB5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D766C1C3-BEB7-4E59-9D13-71C96CEDADF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EA4A9DED-AEE9-4F53-AAF7-4ACD2523B00A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>COMPONENTE</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Motor DC</t>
   </si>
   <si>
-    <t>Motor Servo</t>
-  </si>
-  <si>
     <t>Led</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t xml:space="preserve">Caixa de Reducao </t>
+  </si>
+  <si>
+    <t>Buzzer</t>
   </si>
 </sst>
 </file>
@@ -136,15 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +461,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,38 +488,38 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -535,7 +532,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -543,7 +540,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -559,7 +556,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>

--- a/v0.0.1/projeto/recurso/componentes.xlsx
+++ b/v0.0.1/projeto/recurso/componentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiqu\Downloads\etec199-2023-se-projeto-automobilistico-master\v0.0.1\projeto\recurso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C772C994-37A5-4C2A-BDC5-95B3428D35E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4274E616-749A-4325-A514-9482E2EA34E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EA4A9DED-AEE9-4F53-AAF7-4ACD2523B00A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>COMPONENTE</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Motor DC</t>
   </si>
   <si>
-    <t>Led</t>
-  </si>
-  <si>
     <t>Jumper MM</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t xml:space="preserve">Caixa de Reducao </t>
   </si>
   <si>
-    <t>Buzzer</t>
-  </si>
-  <si>
     <t>HC-SR04</t>
   </si>
   <si>
@@ -82,6 +76,15 @@
   </si>
   <si>
     <t>~10</t>
+  </si>
+  <si>
+    <t>Led Vermelho</t>
+  </si>
+  <si>
+    <t>Led Amarelo</t>
+  </si>
+  <si>
+    <t>Buzzer 5v 12mm</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4B89B3-56C5-46E5-B902-04DD676BFE28}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +503,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -508,7 +511,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -516,7 +519,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -524,7 +527,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -532,7 +535,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -540,23 +543,23 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -564,7 +567,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -572,10 +575,10 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -586,9 +589,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
-    <sortCondition ref="A2:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
+    <sortCondition ref="A2:A14"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
